--- a/03_AD/MHRO/MHRO_RNAV_FINALES.xlsx
+++ b/03_AD/MHRO/MHRO_RNAV_FINALES.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18120" windowHeight="10740" tabRatio="599" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18120" windowHeight="10740" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MHRO RNAV STAR RWY 07" sheetId="1" r:id="rId1"/>
     <sheet name="MHRO RNAV SID RWY 07" sheetId="5" r:id="rId2"/>
+    <sheet name="MHRO RNAV (GNSS) RWY 07" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'MHRO RNAV STAR RWY 07'!$A$1:$M$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="90">
   <si>
     <t>-</t>
   </si>
@@ -246,13 +247,74 @@
   </si>
   <si>
     <t>1°16' W</t>
+  </si>
+  <si>
+    <t>Waypoint
+Identifier</t>
+  </si>
+  <si>
+    <t>VPA(°)/
+ TCH (ft)</t>
+  </si>
+  <si>
+    <t>Navigation
+Specification</t>
+  </si>
+  <si>
+    <t>0º14'W</t>
+  </si>
+  <si>
+    <t>RNP APCH</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>0º16'W</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>Serial
+Number</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>Fly-
+Over</t>
+  </si>
+  <si>
+    <t>Speed
+limit
+(Kt)</t>
+  </si>
+  <si>
+    <t>RNAV (GNSS) RWY 07</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>RO006</t>
+  </si>
+  <si>
+    <t>RO007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -292,8 +354,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,8 +387,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -353,11 +446,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -413,6 +515,57 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,6 +660,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -542,6 +712,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1849,8 +2036,8 @@
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M21"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2986,4 +3173,785 @@
     <ignoredError sqref="I3:I5 I8:I10 I13:I15 I18:I21" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+    </row>
+    <row r="2" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="24"/>
+      <c r="N2" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+    </row>
+    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36">
+        <v>8000</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="24"/>
+      <c r="N3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="35" t="str">
+        <f>S4</f>
+        <v>156.6 (156.4)</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="38">
+        <v>13.23</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="36">
+        <v>4000</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="24"/>
+      <c r="N4" s="32">
+        <v>156.4</v>
+      </c>
+      <c r="O4" s="31" t="str">
+        <f>MID(F3,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="31" t="str">
+        <f>MID(F3,3,2)</f>
+        <v>14</v>
+      </c>
+      <c r="Q4" s="31">
+        <f>-(O4+P4/60)</f>
+        <v>-0.23333333333333334</v>
+      </c>
+      <c r="R4" s="31">
+        <f>N4-Q4</f>
+        <v>156.63333333333333</v>
+      </c>
+      <c r="S4" s="31" t="str">
+        <f>TEXT(R4,"000.0")&amp;TEXT(N4," (000.0)")</f>
+        <v>156.6 (156.4)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="34"/>
+    </row>
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36">
+        <v>8000</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="35" t="str">
+        <f>S7</f>
+        <v>156.6 (156.4)</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="38">
+        <v>13.23</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="36">
+        <v>4000</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="32">
+        <v>156.4</v>
+      </c>
+      <c r="O7" s="31" t="str">
+        <f>MID(F6,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="31" t="str">
+        <f>MID(F6,3,2)</f>
+        <v>14</v>
+      </c>
+      <c r="Q7" s="31">
+        <f>-(O7+P7/60)</f>
+        <v>-0.23333333333333334</v>
+      </c>
+      <c r="R7" s="31">
+        <f>N7-Q7</f>
+        <v>156.63333333333333</v>
+      </c>
+      <c r="S7" s="31" t="str">
+        <f>TEXT(R7,"000.0")&amp;TEXT(N7," (000.0)")</f>
+        <v>156.6 (156.4)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36">
+        <v>8000</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="35" t="str">
+        <f>S10</f>
+        <v>156.6 (156.4)</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="38">
+        <v>13.23</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="36">
+        <v>4000</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="32">
+        <v>156.4</v>
+      </c>
+      <c r="O10" s="31" t="str">
+        <f>MID(F9,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="31" t="str">
+        <f>MID(F9,3,2)</f>
+        <v>14</v>
+      </c>
+      <c r="Q10" s="31">
+        <f>-(O10+P10/60)</f>
+        <v>-0.23333333333333334</v>
+      </c>
+      <c r="R10" s="31">
+        <f>N10-Q10</f>
+        <v>156.63333333333333</v>
+      </c>
+      <c r="S10" s="31" t="str">
+        <f>TEXT(R10,"000.0")&amp;TEXT(N10," (000.0)")</f>
+        <v>156.6 (156.4)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36">
+        <v>8000</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="35" t="str">
+        <f>S13</f>
+        <v>156.6 (156.4)</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="38">
+        <v>13.23</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="36">
+        <v>4000</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="32">
+        <v>156.4</v>
+      </c>
+      <c r="O13" s="31" t="str">
+        <f>MID(F12,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="31" t="str">
+        <f>MID(F12,3,2)</f>
+        <v>14</v>
+      </c>
+      <c r="Q13" s="31">
+        <f>-(O13+P13/60)</f>
+        <v>-0.23333333333333334</v>
+      </c>
+      <c r="R13" s="31">
+        <f>N13-Q13</f>
+        <v>156.63333333333333</v>
+      </c>
+      <c r="S13" s="31" t="str">
+        <f>TEXT(R13,"000.0")&amp;TEXT(N13," (000.0)")</f>
+        <v>156.6 (156.4)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="35" t="str">
+        <f>S14</f>
+        <v>156.7 (156.4)</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="38">
+        <v>13.23</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="36">
+        <v>4000</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="32">
+        <v>156.4</v>
+      </c>
+      <c r="O14" s="31" t="str">
+        <f>MID(F13,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="31" t="str">
+        <f>MID(F13,3,2)</f>
+        <v>16</v>
+      </c>
+      <c r="Q14" s="31">
+        <f>-(O14+P14/60)</f>
+        <v>-0.26666666666666666</v>
+      </c>
+      <c r="R14" s="31">
+        <f>N14-Q14</f>
+        <v>156.66666666666669</v>
+      </c>
+      <c r="S14" s="31" t="str">
+        <f>TEXT(R14,"000.0")&amp;TEXT(N14," (000.0)")</f>
+        <v>156.7 (156.4)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="35" t="str">
+        <f>S15</f>
+        <v>156.7 (156.4)</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="38">
+        <v>13.23</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="36">
+        <v>4000</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="32">
+        <v>156.4</v>
+      </c>
+      <c r="O15" s="31" t="str">
+        <f>MID(F14,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="31" t="str">
+        <f>MID(F14,3,2)</f>
+        <v>16</v>
+      </c>
+      <c r="Q15" s="31">
+        <f>-(O15+P15/60)</f>
+        <v>-0.26666666666666666</v>
+      </c>
+      <c r="R15" s="31">
+        <f>N15-Q15</f>
+        <v>156.66666666666669</v>
+      </c>
+      <c r="S15" s="31" t="str">
+        <f>TEXT(R15,"000.0")&amp;TEXT(N15," (000.0)")</f>
+        <v>156.7 (156.4)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="35" t="str">
+        <f>S16</f>
+        <v>156.7 (156.4)</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="38">
+        <v>13.23</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="36">
+        <v>4000</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="32">
+        <v>156.4</v>
+      </c>
+      <c r="O16" s="31" t="str">
+        <f>MID(F15,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="31" t="str">
+        <f>MID(F15,3,2)</f>
+        <v>16</v>
+      </c>
+      <c r="Q16" s="31">
+        <f>-(O16+P16/60)</f>
+        <v>-0.26666666666666666</v>
+      </c>
+      <c r="R16" s="31">
+        <f>N16-Q16</f>
+        <v>156.66666666666669</v>
+      </c>
+      <c r="S16" s="31" t="str">
+        <f>TEXT(R16,"000.0")&amp;TEXT(N16," (000.0)")</f>
+        <v>156.7 (156.4)</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>